--- a/biology/Médecine/DentalMonitoring/DentalMonitoring.xlsx
+++ b/biology/Médecine/DentalMonitoring/DentalMonitoring.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DentalMonitoring est une entreprise française qui permet aux dentistes et orthodontistes de suivre et de contrôler la santé bucco-dentaire de patients à distance par usage de l'intelligence artificielle. La start-up propose des consultations virtuelles ainsi que le suivi des traitements à distance. DentalMonitoring est active en Europe, aux États-Unis, en Australie et en Asie et compte plus de 400 employés dans 18 pays[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DentalMonitoring est une entreprise française qui permet aux dentistes et orthodontistes de suivre et de contrôler la santé bucco-dentaire de patients à distance par usage de l'intelligence artificielle. La start-up propose des consultations virtuelles ainsi que le suivi des traitements à distance. DentalMonitoring est active en Europe, aux États-Unis, en Australie et en Asie et compte plus de 400 employés dans 18 pays.
 </t>
         </is>
       </c>
@@ -511,14 +523,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">DentalMonitoring est cofondé par Philippe Salah en 2014. L’entreprise commercialise son offre de soin connectée en 2017.
 En mars 2018, DentalMonitoring lève 9,5 millions de dollars.
-En 2019, l'entreprise lève 45 millions d’euros auprès des investisseurs Vitruvian Partners, Naxicap Partners et Straumann[2]. La start-up a pour objectif d'accélérer son développement aux États-Unis et en Asie[3]. Dental Monitoring est alors la seule start-up au monde à appliquer les bénéfices de l’intelligence artificielle au traitement dentaire[4].
-En 2020, DentalMonitoring acquiert la start-up française Loumacare (le produit se nomme Loum) spécialisée dans l'observance thérapeutique[5].
-Licorne française
-En 2021, DentalMonitoring lève 150 millions de dollars auprès des fonds Mérieux Equity Partners et Vitruvian Partners[6], ce qui lui permet d'entrer dans la liste des licornes françaises avec une valorisation à 1,2 milliard de dollars[7],[8],[9].
+En 2019, l'entreprise lève 45 millions d’euros auprès des investisseurs Vitruvian Partners, Naxicap Partners et Straumann. La start-up a pour objectif d'accélérer son développement aux États-Unis et en Asie. Dental Monitoring est alors la seule start-up au monde à appliquer les bénéfices de l’intelligence artificielle au traitement dentaire.
+En 2020, DentalMonitoring acquiert la start-up française Loumacare (le produit se nomme Loum) spécialisée dans l'observance thérapeutique.
 </t>
         </is>
       </c>
@@ -544,12 +556,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Licorne française</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, DentalMonitoring lève 150 millions de dollars auprès des fonds Mérieux Equity Partners et Vitruvian Partners, ce qui lui permet d'entrer dans la liste des licornes françaises avec une valorisation à 1,2 milliard de dollars.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DentalMonitoring</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/DentalMonitoring</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DentalMonitoring permet d'analyser, de détecter et de signaler plus de 130 observations orales à partir d'images prises avec un smartphone[1]. Avec cette solution, le médecin peut suivre à distance ce qui se passe dans la bouche du patient[10]. L'entreprise propose également des solutions de consultation virtuelle ainsi que le suivi des traitements à distance.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DentalMonitoring permet d'analyser, de détecter et de signaler plus de 130 observations orales à partir d'images prises avec un smartphone. Avec cette solution, le médecin peut suivre à distance ce qui se passe dans la bouche du patient. L'entreprise propose également des solutions de consultation virtuelle ainsi que le suivi des traitements à distance.
 </t>
         </is>
       </c>
